--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>19.338547629110622</v>
+        <v>19.338547597011996</v>
       </c>
       <c r="C2">
-        <v>28.964743731505678</v>
+        <v>28.964743701256282</v>
       </c>
       <c r="D2">
-        <v>5.3472709423394633</v>
+        <v>5.3472709024625544</v>
       </c>
       <c r="E2">
-        <v>31.004825654566218</v>
+        <v>31.004825596177994</v>
       </c>
       <c r="F2">
-        <v>-15.469979849943911</v>
+        <v>-15.469979876864102</v>
       </c>
       <c r="G2">
-        <v>25.136739196161074</v>
+        <v>25.136739134850444</v>
       </c>
       <c r="H2">
-        <v>26.392093939196059</v>
+        <v>26.392093886930581</v>
       </c>
       <c r="I2">
-        <v>20.49809053166274</v>
+        <v>20.498090490936931</v>
       </c>
       <c r="J2">
-        <v>29.726556422912495</v>
+        <v>29.726556386885591</v>
       </c>
       <c r="K2">
-        <v>40.025659689329018</v>
+        <v>40.025659682316871</v>
       </c>
       <c r="L2">
-        <v>31.465134958665374</v>
+        <v>31.465134910375582</v>
       </c>
       <c r="M2">
-        <v>24.362651647669395</v>
+        <v>24.36265159199786</v>
       </c>
       <c r="N2">
-        <v>35.483031957895946</v>
+        <v>35.483031884308502</v>
       </c>
       <c r="O2">
-        <v>10.611841769333068</v>
+        <v>10.611841724221335</v>
       </c>
       <c r="P2">
-        <v>21.798566530448682</v>
+        <v>21.798566485583649</v>
       </c>
       <c r="Q2">
-        <v>39.349301035812687</v>
+        <v>39.349300981333215</v>
       </c>
       <c r="R2">
-        <v>20.49303687066498</v>
+        <v>20.49303681545058</v>
       </c>
       <c r="S2">
-        <v>20.442757379585771</v>
+        <v>20.442757353297111</v>
       </c>
       <c r="T2">
-        <v>38.392485370761733</v>
+        <v>38.392485316084276</v>
       </c>
       <c r="U2">
-        <v>31.645014582275138</v>
+        <v>31.645014558543693</v>
       </c>
       <c r="V2">
-        <v>30.620708568174223</v>
+        <v>30.62070854876356</v>
       </c>
       <c r="W2">
-        <v>8.1956079911349207</v>
+        <v>8.195607917094776</v>
       </c>
       <c r="X2">
-        <v>33.891196473523451</v>
+        <v>33.891196408295514</v>
       </c>
       <c r="Y2">
-        <v>30.936046594460777</v>
+        <v>30.936046567724048</v>
       </c>
       <c r="Z2">
-        <v>26.39595397656629</v>
+        <v>26.395953953891791</v>
       </c>
       <c r="AA2">
-        <v>35.719899664918614</v>
+        <v>35.719899573349608</v>
       </c>
       <c r="AB2">
-        <v>33.196535163734893</v>
+        <v>33.196535124739682</v>
       </c>
       <c r="AC2">
-        <v>20.587575554179097</v>
+        <v>20.587575522076889</v>
       </c>
       <c r="AD2">
-        <v>31.170586403662128</v>
+        <v>31.170586361695541</v>
       </c>
       <c r="AE2">
-        <v>37.005542917335902</v>
+        <v>37.005542893552558</v>
       </c>
       <c r="AF2">
-        <v>30.942276344563197</v>
+        <v>30.942276319429538</v>
       </c>
       <c r="AG2">
-        <v>26.39432948465992</v>
+        <v>26.394329458951404</v>
       </c>
       <c r="AH2">
-        <v>24.812016314489028</v>
+        <v>24.812016287582139</v>
       </c>
       <c r="AI2">
-        <v>7.0462133966410079</v>
+        <v>7.0462133822235273</v>
       </c>
       <c r="AJ2">
-        <v>21.458850404898726</v>
+        <v>21.458850366701483</v>
       </c>
       <c r="AK2">
-        <v>29.865855878214575</v>
+        <v>29.865855835373111</v>
       </c>
       <c r="AL2">
-        <v>41.071360952491034</v>
+        <v>41.071360920185043</v>
       </c>
       <c r="AM2">
-        <v>28.352277628226744</v>
+        <v>28.35227757664299</v>
       </c>
       <c r="AN2">
-        <v>25.139486625072891</v>
+        <v>25.13948659052204</v>
       </c>
       <c r="AO2">
-        <v>37.676581495421118</v>
+        <v>37.676581437503756</v>
       </c>
       <c r="AP2">
-        <v>29.010593538103194</v>
+        <v>29.010593496172362</v>
       </c>
       <c r="AQ2">
-        <v>25.857760602996336</v>
+        <v>25.85776053923928</v>
       </c>
       <c r="AR2">
-        <v>30.985095633852154</v>
+        <v>30.98509562107273</v>
       </c>
       <c r="AS2">
-        <v>33.529569806912207</v>
+        <v>33.529569764789073</v>
       </c>
       <c r="AT2">
-        <v>31.255017450728985</v>
+        <v>31.255017412033851</v>
       </c>
       <c r="AU2">
-        <v>25.329795908241977</v>
+        <v>25.32979588444573</v>
       </c>
       <c r="AV2">
-        <v>18.63362681813436</v>
+        <v>18.633626738586145</v>
       </c>
       <c r="AW2">
-        <v>29.24839911260139</v>
+        <v>29.248399058384706</v>
       </c>
       <c r="AX2">
-        <v>33.13752412823851</v>
+        <v>33.137524091643115</v>
       </c>
       <c r="AY2">
-        <v>28.737864059932434</v>
+        <v>28.737864037135608</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>21.006954086017117</v>
+        <v>21.006954092832643</v>
       </c>
       <c r="C3">
-        <v>28.005314767835046</v>
+        <v>28.00531475163524</v>
       </c>
       <c r="D3">
-        <v>35.012871750522351</v>
+        <v>35.012871695838243</v>
       </c>
       <c r="E3">
-        <v>42.041997706410996</v>
+        <v>42.041997700468244</v>
       </c>
       <c r="F3">
-        <v>5.9940583277540895</v>
+        <v>5.9940583031926451</v>
       </c>
       <c r="G3">
-        <v>28.16275128741492</v>
+        <v>28.162751274605085</v>
       </c>
       <c r="H3">
-        <v>28.782985623595209</v>
+        <v>28.782985546120926</v>
       </c>
       <c r="I3">
-        <v>27.40386747288494</v>
+        <v>27.403867489551999</v>
       </c>
       <c r="J3">
-        <v>33.646871872163445</v>
+        <v>33.646871859820578</v>
       </c>
       <c r="K3">
-        <v>2.3986068073680826</v>
+        <v>2.3986067691916446</v>
       </c>
       <c r="L3">
-        <v>36.776469455674203</v>
+        <v>36.77646941197213</v>
       </c>
       <c r="M3">
-        <v>26.697082409592497</v>
+        <v>26.697227883218488</v>
       </c>
       <c r="N3">
-        <v>30.964940889971786</v>
+        <v>30.964940853434314</v>
       </c>
       <c r="O3">
-        <v>13.102229759887621</v>
+        <v>13.102229730301303</v>
       </c>
       <c r="P3">
-        <v>64.526317933317387</v>
+        <v>64.526317879445401</v>
       </c>
       <c r="Q3">
-        <v>25.46267407053017</v>
+        <v>25.462674024837042</v>
       </c>
       <c r="R3">
-        <v>16.817979318568916</v>
+        <v>16.817979258891285</v>
       </c>
       <c r="S3">
-        <v>16.587720941354291</v>
+        <v>16.587720922171457</v>
       </c>
       <c r="T3">
-        <v>19.340664906760765</v>
+        <v>19.340664874361892</v>
       </c>
       <c r="U3">
-        <v>29.488164728661843</v>
+        <v>29.488164701200276</v>
       </c>
       <c r="V3">
-        <v>34.7857190358867</v>
+        <v>34.785719010975697</v>
       </c>
       <c r="W3">
-        <v>24.456530211779295</v>
+        <v>24.456530165393929</v>
       </c>
       <c r="X3">
-        <v>13.329601239144552</v>
+        <v>13.329601213055412</v>
       </c>
       <c r="Y3">
-        <v>15.40220155783652</v>
+        <v>15.402201509612127</v>
       </c>
       <c r="Z3">
-        <v>26.783767179733843</v>
+        <v>26.783767149760649</v>
       </c>
       <c r="AA3">
-        <v>39.296530762003954</v>
+        <v>39.296530657012227</v>
       </c>
       <c r="AB3">
-        <v>28.39371565850729</v>
+        <v>28.393715611029393</v>
       </c>
       <c r="AC3">
-        <v>33.891924837052699</v>
+        <v>33.891924791603884</v>
       </c>
       <c r="AD3">
-        <v>41.519692508546399</v>
+        <v>41.519692423278627</v>
       </c>
       <c r="AE3">
-        <v>32.515266897920384</v>
+        <v>32.515266871378884</v>
       </c>
       <c r="AF3">
-        <v>32.764565180801753</v>
+        <v>32.764565160201926</v>
       </c>
       <c r="AG3">
-        <v>24.91501447395126</v>
+        <v>24.915014422668264</v>
       </c>
       <c r="AH3">
-        <v>29.373363645249697</v>
+        <v>29.373363608876957</v>
       </c>
       <c r="AI3">
-        <v>35.179669665947756</v>
+        <v>35.17966961908121</v>
       </c>
       <c r="AJ3">
-        <v>37.816556741811496</v>
+        <v>37.81655670067596</v>
       </c>
       <c r="AK3">
-        <v>33.344328100051371</v>
+        <v>33.344328069438234</v>
       </c>
       <c r="AL3">
-        <v>35.878475319811116</v>
+        <v>35.878475273635217</v>
       </c>
       <c r="AM3">
-        <v>26.420898954106065</v>
+        <v>26.420898894576226</v>
       </c>
       <c r="AN3">
-        <v>13.129652970622345</v>
+        <v>13.129652960044496</v>
       </c>
       <c r="AO3">
-        <v>15.540611986018547</v>
+        <v>15.540611937819165</v>
       </c>
       <c r="AP3">
-        <v>37.445453040924519</v>
+        <v>37.44545299255509</v>
       </c>
       <c r="AQ3">
-        <v>29.38556317684538</v>
+        <v>29.385563129209686</v>
       </c>
       <c r="AR3">
-        <v>38.411035768999795</v>
+        <v>38.411035753787303</v>
       </c>
       <c r="AS3">
-        <v>24.718035382119751</v>
+        <v>24.718035341064251</v>
       </c>
       <c r="AT3">
-        <v>23.595914113640021</v>
+        <v>23.595914078234756</v>
       </c>
       <c r="AU3">
-        <v>31.358210386574626</v>
+        <v>31.358210360615203</v>
       </c>
       <c r="AV3">
-        <v>29.433948236890615</v>
+        <v>29.43394815095246</v>
       </c>
       <c r="AW3">
-        <v>30.979381576496792</v>
+        <v>30.979381541104431</v>
       </c>
       <c r="AX3">
-        <v>61.162799927658739</v>
+        <v>61.162799880696355</v>
       </c>
       <c r="AY3">
-        <v>44.025351471086196</v>
+        <v>44.025351439727444</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_ind_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,310 +401,304 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>19.338547597011996</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>28.964743701256282</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>5.3472709024625544</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>31.004825596177994</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-15.469979876864102</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>25.136739134850444</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>26.392093886930581</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>20.498090490936931</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>29.726556386885591</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>40.025659682316871</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>31.465134910375582</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>24.36265159199786</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>35.483031884308502</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>10.611841724221335</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>21.798566485583649</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>39.349300981333215</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>20.49303681545058</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>20.442757353297111</v>
+        <v>20.442724023297103</v>
       </c>
       <c r="T2">
-        <v>38.392485316084276</v>
+        <v>38.392451986084211</v>
       </c>
       <c r="U2">
-        <v>31.645014558543693</v>
+        <v>31.644981228543685</v>
       </c>
       <c r="V2">
-        <v>30.62070854876356</v>
+        <v>30.620675218763608</v>
       </c>
       <c r="W2">
-        <v>8.195607917094776</v>
+        <v>8.1955745870948249</v>
       </c>
       <c r="X2">
-        <v>33.891196408295514</v>
+        <v>33.891229738295522</v>
       </c>
       <c r="Y2">
-        <v>30.936046567724048</v>
+        <v>30.936079897724056</v>
       </c>
       <c r="Z2">
-        <v>26.395953953891791</v>
+        <v>26.395987283891799</v>
       </c>
       <c r="AA2">
-        <v>35.719899573349608</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>33.196535124739682</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>20.587575522076889</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>31.170586361695541</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>37.005542893552558</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>30.942276319429538</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>26.394329458951404</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>24.812016287582139</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>7.0462133822235273</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>21.458850366701483</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>29.865855835373111</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>41.071360920185043</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>28.35227757664299</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>25.13948659052204</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>37.676581437503756</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>29.010593496172362</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>25.85776053923928</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>30.98509562107273</v>
+        <v>30.985062291072722</v>
       </c>
       <c r="AS2">
-        <v>33.529569764789073</v>
+        <v>33.529536434789065</v>
       </c>
       <c r="AT2">
         <v>31.255017412033851</v>
       </c>
       <c r="AU2">
-        <v>25.32979588444573</v>
+        <v>25.329762554445722</v>
       </c>
       <c r="AV2">
         <v>18.633626738586145</v>
       </c>
       <c r="AW2">
-        <v>29.248399058384706</v>
+        <v>29.248432388384714</v>
       </c>
       <c r="AX2">
-        <v>33.137524091643115</v>
+        <v>33.137557421643095</v>
       </c>
       <c r="AY2">
         <v>28.737864037135608</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>21.006954092832643</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>28.00531475163524</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>35.012871695838243</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>42.041997700468244</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>5.9940583031926451</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>28.162751274605085</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>28.782985546120926</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>27.403867489551999</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>33.646871859820578</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>2.3986067691916446</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>36.77646941197213</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>26.697227883218488</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>30.964940853434314</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>13.102229730301303</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>64.526317879445401</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>25.462674024837042</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>16.817979258891285</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>16.587720922171457</v>
       </c>
       <c r="T3">
-        <v>19.340664874361892</v>
+        <v>19.340631544361827</v>
       </c>
       <c r="U3">
-        <v>29.488164701200276</v>
+        <v>29.488131371200268</v>
       </c>
       <c r="V3">
-        <v>34.785719010975697</v>
+        <v>34.785685680975689</v>
       </c>
       <c r="W3">
-        <v>24.456530165393929</v>
+        <v>24.456496835393921</v>
       </c>
       <c r="X3">
-        <v>13.329601213055412</v>
+        <v>13.329567883055404</v>
       </c>
       <c r="Y3">
-        <v>15.402201509612127</v>
+        <v>15.402234839612106</v>
       </c>
       <c r="Z3">
-        <v>26.783767149760649</v>
+        <v>26.783800479760657</v>
       </c>
       <c r="AA3">
-        <v>39.296530657012227</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>28.393715611029393</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>33.891924791603884</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>41.519692423278627</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>32.515266871378884</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>32.764565160201926</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>24.915014422668264</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>29.373363608876957</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>35.17966961908121</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>37.81655670067596</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>33.344328069438234</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>35.878475273635217</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>26.420898894576226</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>13.129652960044496</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>15.540611937819165</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>37.44545299255509</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>29.385563129209686</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>38.411035753787303</v>
+        <v>38.411002423787352</v>
       </c>
       <c r="AS3">
         <v>24.718035341064251</v>
       </c>
       <c r="AT3">
-        <v>23.595914078234756</v>
+        <v>23.595880748234748</v>
       </c>
       <c r="AU3">
-        <v>31.358210360615203</v>
+        <v>31.358177030615195</v>
       </c>
       <c r="AV3">
-        <v>29.43394815095246</v>
+        <v>29.433981480952525</v>
       </c>
       <c r="AW3">
-        <v>30.979381541104431</v>
+        <v>30.979348211104423</v>
       </c>
       <c r="AX3">
-        <v>61.162799880696355</v>
+        <v>61.162833210696334</v>
       </c>
       <c r="AY3">
         <v>44.025351439727444</v>

--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>19.338514299110614</v>
+        <v>10.611875054221343</v>
       </c>
       <c r="C2">
-        <v>30.501443731505674</v>
+        <v>20.493003485450572</v>
       </c>
       <c r="D2">
-        <v>5.3472709423394633</v>
+        <v>25.139519920522048</v>
       </c>
       <c r="E2">
-        <v>38.31819232456624</v>
+        <v>25.85776053923928</v>
       </c>
       <c r="F2">
         <v>-15.470013179943919</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>21.006954086017117</v>
+        <v>13.102229730301303</v>
       </c>
       <c r="C3">
-        <v>34.645281437835024</v>
+        <v>16.817945928891334</v>
       </c>
       <c r="D3">
-        <v>35.012838420522371</v>
+        <v>13.129686290044475</v>
       </c>
       <c r="E3">
-        <v>42.041964376410988</v>
+        <v>29.383542863123807</v>
       </c>
       <c r="F3">
         <v>5.9940916577540975</v>

--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_ind_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>19.338514299110614</v>
+        <v>1.352655904642404</v>
       </c>
       <c r="C2">
-        <v>30.501443731505674</v>
+        <v>14.754489528679926</v>
       </c>
       <c r="D2">
-        <v>5.3472709423394633</v>
+        <v>20.670691245916089</v>
       </c>
       <c r="E2">
-        <v>38.31819232456624</v>
+        <v>28.479259450375366</v>
       </c>
       <c r="F2">
         <v>-15.470013179943919</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>21.006954086017117</v>
+        <v>-19.535092476565751</v>
       </c>
       <c r="C3">
-        <v>34.645281437835024</v>
+        <v>13.102229730301303</v>
       </c>
       <c r="D3">
-        <v>35.012838420522371</v>
+        <v>39.927565564576298</v>
       </c>
       <c r="E3">
-        <v>42.041964376410988</v>
+        <v>13.129686290044475</v>
       </c>
       <c r="F3">
         <v>5.9940916577540975</v>

--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_ind_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>19.576035492101482</v>
+      </c>
+      <c r="C2">
+        <v>30.501443701256278</v>
+      </c>
+      <c r="D2">
+        <v>9.848015507033324</v>
+      </c>
+      <c r="E2">
+        <v>40.535215493835636</v>
+      </c>
+      <c r="F2">
+        <v>-15.47001320686411</v>
+      </c>
+      <c r="G2">
+        <v>25.136705804850465</v>
+      </c>
+      <c r="H2">
+        <v>26.603192062552921</v>
+      </c>
+      <c r="I2">
+        <v>21.963796932419143</v>
+      </c>
+      <c r="J2">
+        <v>29.889664371036815</v>
+      </c>
+      <c r="K2">
+        <v>42.349958579148279</v>
+      </c>
+      <c r="L2">
+        <v>33.72046040672933</v>
+      </c>
+      <c r="M2">
+        <v>24.362684921997811</v>
+      </c>
+      <c r="N2">
         <v>1.352655904642404</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>14.754489528679926</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>21.798566485583649</v>
+      </c>
+      <c r="Q2">
+        <v>71.005934311333192</v>
+      </c>
+      <c r="R2">
+        <v>20.493003485450572</v>
+      </c>
+      <c r="S2">
+        <v>20.68372758103078</v>
+      </c>
+      <c r="T2">
+        <v>38.392451986084211</v>
+      </c>
+      <c r="U2">
+        <v>32.367024734313333</v>
+      </c>
+      <c r="V2">
+        <v>33.754834879427676</v>
+      </c>
+      <c r="W2">
+        <v>14.403118865220904</v>
+      </c>
+      <c r="X2">
+        <v>35.808792275927146</v>
+      </c>
+      <c r="Y2">
+        <v>31.411632489974579</v>
+      </c>
+      <c r="Z2">
+        <v>26.395987283891799</v>
+      </c>
+      <c r="AA2">
+        <v>36.20450610332415</v>
+      </c>
+      <c r="AB2">
+        <v>4.113201794739723</v>
+      </c>
+      <c r="AC2">
+        <v>23.491410617711267</v>
+      </c>
+      <c r="AD2">
+        <v>25.911732424053923</v>
+      </c>
+      <c r="AE2">
+        <v>37.005542893552558</v>
+      </c>
+      <c r="AF2">
+        <v>30.942242989429587</v>
+      </c>
+      <c r="AG2">
+        <v>26.78122195017022</v>
+      </c>
+      <c r="AH2">
+        <v>27.14693083573593</v>
+      </c>
+      <c r="AI2">
+        <v>7.1349810510628231</v>
+      </c>
+      <c r="AJ2">
+        <v>24.258456297689804</v>
+      </c>
+      <c r="AK2">
+        <v>32.484805269910623</v>
+      </c>
+      <c r="AL2">
+        <v>41.071360920185043</v>
+      </c>
+      <c r="AM2">
         <v>20.670691245916089</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>28.479259450375366</v>
       </c>
-      <c r="F2">
-        <v>-15.470013179943919</v>
-      </c>
-      <c r="G2">
-        <v>25.136705866161094</v>
-      </c>
-      <c r="H2">
-        <v>26.392127269196067</v>
-      </c>
-      <c r="I2">
-        <v>20.498057201662732</v>
-      </c>
-      <c r="J2">
-        <v>29.726589752912446</v>
-      </c>
-      <c r="K2">
-        <v>40.025693019329083</v>
-      </c>
-      <c r="L2">
-        <v>31.465101628665309</v>
-      </c>
-      <c r="M2">
-        <v>24.362684977669346</v>
-      </c>
-      <c r="N2">
-        <v>-0.65700137210404819</v>
-      </c>
-      <c r="O2">
-        <v>10.611875099333076</v>
-      </c>
-      <c r="P2">
-        <v>21.798566530448682</v>
-      </c>
-      <c r="Q2">
-        <v>71.005934365812664</v>
-      </c>
-      <c r="R2">
-        <v>20.493003540664972</v>
-      </c>
-      <c r="S2">
-        <v>20.442724049585763</v>
-      </c>
-      <c r="T2">
-        <v>38.392452040761668</v>
-      </c>
-      <c r="U2">
-        <v>31.64498125227513</v>
-      </c>
-      <c r="V2">
-        <v>30.620675238174272</v>
-      </c>
-      <c r="W2">
-        <v>8.2286399116711664</v>
-      </c>
-      <c r="X2">
-        <v>33.891229803523458</v>
-      </c>
-      <c r="Y2">
-        <v>30.936079924460785</v>
-      </c>
-      <c r="Z2">
-        <v>26.395987306566298</v>
-      </c>
-      <c r="AA2">
-        <v>35.719932994918622</v>
-      </c>
-      <c r="AB2">
-        <v>4.1132018337349336</v>
-      </c>
-      <c r="AC2">
-        <v>20.587608884179076</v>
-      </c>
-      <c r="AD2">
-        <v>23.623919733662149</v>
-      </c>
-      <c r="AE2">
-        <v>37.005542917335902</v>
-      </c>
-      <c r="AF2">
-        <v>30.942243014563246</v>
-      </c>
-      <c r="AG2">
-        <v>26.39432948465992</v>
-      </c>
-      <c r="AH2">
-        <v>24.811982984489077</v>
-      </c>
-      <c r="AI2">
-        <v>7.0461800666409999</v>
-      </c>
-      <c r="AJ2">
-        <v>21.458883734898677</v>
-      </c>
-      <c r="AK2">
-        <v>29.865889208214583</v>
-      </c>
-      <c r="AL2">
-        <v>41.071360952491034</v>
-      </c>
-      <c r="AM2">
-        <v>19.048944298226729</v>
-      </c>
-      <c r="AN2">
-        <v>25.139519955072899</v>
-      </c>
       <c r="AO2">
-        <v>37.676581495421118</v>
+        <v>37.676581437503756</v>
       </c>
       <c r="AP2">
-        <v>29.434943312513496</v>
+        <v>29.434943251070649</v>
       </c>
       <c r="AQ2">
-        <v>25.857760602996336</v>
+        <v>25.85776053923928</v>
       </c>
       <c r="AR2">
-        <v>30.985062303852146</v>
+        <v>31.418926412495807</v>
       </c>
       <c r="AS2">
-        <v>33.529536476912199</v>
+        <v>33.529536434789065</v>
       </c>
       <c r="AT2">
-        <v>31.255017450728985</v>
+        <v>32.809502056908457</v>
       </c>
       <c r="AU2">
-        <v>25.329762578241969</v>
+        <v>29.260690267161863</v>
       </c>
       <c r="AV2">
-        <v>18.669139448805709</v>
+        <v>24.299951474061004</v>
       </c>
       <c r="AW2">
-        <v>29.248432442601398</v>
+        <v>31.58171991319071</v>
       </c>
       <c r="AX2">
-        <v>33.13755745823849</v>
+        <v>33.77239331705826</v>
       </c>
       <c r="AY2">
-        <v>28.737864059932434</v>
+        <v>28.737864037135608</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>21.006954092832643</v>
+      </c>
+      <c r="C3">
+        <v>35.06421388983108</v>
+      </c>
+      <c r="D3">
+        <v>35.012838365838263</v>
+      </c>
+      <c r="E3">
+        <v>42.041964370468236</v>
+      </c>
+      <c r="F3">
+        <v>6.7285636056975875</v>
+      </c>
+      <c r="G3">
+        <v>28.680888395328026</v>
+      </c>
+      <c r="H3">
+        <v>28.783018876120877</v>
+      </c>
+      <c r="I3">
+        <v>27.40390081955195</v>
+      </c>
+      <c r="J3">
+        <v>35.890171859820555</v>
+      </c>
+      <c r="K3">
+        <v>2.3986067691916446</v>
+      </c>
+      <c r="L3">
+        <v>36.776502741972195</v>
+      </c>
+      <c r="M3">
+        <v>29.616604719416159</v>
+      </c>
+      <c r="N3">
         <v>-19.535092476565751</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>13.102229730301303</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>65.38733690819538</v>
+      </c>
+      <c r="Q3">
+        <v>26.246254306761273</v>
+      </c>
+      <c r="R3">
+        <v>21.155914463923068</v>
+      </c>
+      <c r="S3">
+        <v>16.587720922171457</v>
+      </c>
+      <c r="T3">
+        <v>20.22313587445899</v>
+      </c>
+      <c r="U3">
+        <v>29.488131371200268</v>
+      </c>
+      <c r="V3">
+        <v>34.785685680975689</v>
+      </c>
+      <c r="W3">
+        <v>24.319433635273697</v>
+      </c>
+      <c r="X3">
+        <v>13.329567883055404</v>
+      </c>
+      <c r="Y3">
+        <v>15.402234839612106</v>
+      </c>
+      <c r="Z3">
+        <v>27.113429114141809</v>
+      </c>
+      <c r="AA3">
+        <v>39.296497327012219</v>
+      </c>
+      <c r="AB3">
+        <v>27.526629642021987</v>
+      </c>
+      <c r="AC3">
+        <v>33.891958121603892</v>
+      </c>
+      <c r="AD3">
+        <v>41.519692423278627</v>
+      </c>
+      <c r="AE3">
+        <v>33.267835069050193</v>
+      </c>
+      <c r="AF3">
+        <v>33.981496664703457</v>
+      </c>
+      <c r="AG3">
+        <v>24.915014422668264</v>
+      </c>
+      <c r="AH3">
+        <v>29.134677743486577</v>
+      </c>
+      <c r="AI3">
+        <v>36.753036289081138</v>
+      </c>
+      <c r="AJ3">
+        <v>37.816523370676009</v>
+      </c>
+      <c r="AK3">
+        <v>33.344361399438185</v>
+      </c>
+      <c r="AL3">
+        <v>39.02230394774341</v>
+      </c>
+      <c r="AM3">
         <v>39.927565564576298</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>13.129686290044475</v>
       </c>
-      <c r="F3">
-        <v>5.9940916577540975</v>
-      </c>
-      <c r="G3">
-        <v>28.162717957414912</v>
-      </c>
-      <c r="H3">
-        <v>28.78301895359516</v>
-      </c>
-      <c r="I3">
-        <v>27.403900802884891</v>
-      </c>
-      <c r="J3">
-        <v>35.890171872163421</v>
-      </c>
-      <c r="K3">
-        <v>2.3986068073680826</v>
-      </c>
-      <c r="L3">
-        <v>36.776502785674268</v>
-      </c>
-      <c r="M3">
-        <v>26.697082409592497</v>
-      </c>
-      <c r="N3">
-        <v>-19.535092440028279</v>
-      </c>
-      <c r="O3">
-        <v>13.102229759887621</v>
-      </c>
-      <c r="P3">
-        <v>64.526284603317379</v>
-      </c>
-      <c r="Q3">
-        <v>25.462707400530121</v>
-      </c>
-      <c r="R3">
-        <v>16.817945988568965</v>
-      </c>
-      <c r="S3">
-        <v>16.587720941354291</v>
-      </c>
-      <c r="T3">
-        <v>19.3406315767607</v>
-      </c>
-      <c r="U3">
-        <v>29.488131398661835</v>
-      </c>
-      <c r="V3">
-        <v>34.785685705886692</v>
-      </c>
-      <c r="W3">
-        <v>24.319433857175625</v>
-      </c>
-      <c r="X3">
-        <v>13.329567909144544</v>
-      </c>
-      <c r="Y3">
-        <v>15.402234887836499</v>
-      </c>
-      <c r="Z3">
-        <v>26.783800509733851</v>
-      </c>
-      <c r="AA3">
-        <v>39.296497432003946</v>
-      </c>
-      <c r="AB3">
-        <v>25.830415658507263</v>
-      </c>
-      <c r="AC3">
-        <v>33.891958167052707</v>
-      </c>
-      <c r="AD3">
-        <v>41.519692508546399</v>
-      </c>
-      <c r="AE3">
-        <v>32.515233567920404</v>
-      </c>
-      <c r="AF3">
-        <v>32.764531850801745</v>
-      </c>
-      <c r="AG3">
-        <v>24.91501447395126</v>
-      </c>
-      <c r="AH3">
-        <v>29.134677782336666</v>
-      </c>
-      <c r="AI3">
-        <v>36.753036335947684</v>
-      </c>
-      <c r="AJ3">
-        <v>37.816523411811545</v>
-      </c>
-      <c r="AK3">
-        <v>33.344361430051322</v>
-      </c>
-      <c r="AL3">
-        <v>35.878475319811116</v>
-      </c>
-      <c r="AM3">
-        <v>39.927565624106137</v>
-      </c>
-      <c r="AN3">
-        <v>13.129686300622325</v>
-      </c>
       <c r="AO3">
-        <v>15.540611986018547</v>
+        <v>16.749141641002552</v>
       </c>
       <c r="AP3">
-        <v>37.445486370924471</v>
+        <v>38.226907818490417</v>
       </c>
       <c r="AQ3">
-        <v>29.383542913807162</v>
+        <v>33.33869612715057</v>
       </c>
       <c r="AR3">
-        <v>38.411002438999844</v>
+        <v>38.411002423787352</v>
       </c>
       <c r="AS3">
-        <v>24.718035382119751</v>
+        <v>25.807839102993057</v>
       </c>
       <c r="AT3">
-        <v>23.595880783640013</v>
+        <v>23.595880748234748</v>
       </c>
       <c r="AU3">
-        <v>31.358177056574618</v>
+        <v>31.358177030615195</v>
       </c>
       <c r="AV3">
-        <v>29.472555297178133</v>
+        <v>29.472555213018381</v>
       </c>
       <c r="AW3">
-        <v>30.979348246496784</v>
+        <v>30.979348211104423</v>
       </c>
       <c r="AX3">
-        <v>61.162833257658718</v>
+        <v>61.162833210696334</v>
       </c>
       <c r="AY3">
-        <v>44.025351471086196</v>
+        <v>44.282111910890933</v>
       </c>
     </row>
   </sheetData>
